--- a/HBFS Data Table.xlsx
+++ b/HBFS Data Table.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenny\Where-Will-Big-Foot-Appear-Next\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05564859-A940-49A4-A135-8717F94523FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEEA9E5-3EDD-4494-A266-D9A7FFE690DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29070" yWindow="2310" windowWidth="27060" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HBFS Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Ranks" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
   <si>
     <t>State</t>
   </si>
@@ -75,6 +88,33 @@
   </si>
   <si>
     <t>2011-2020 Sightings</t>
+  </si>
+  <si>
+    <t>% of Sightings</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>2020- MP</t>
+  </si>
+  <si>
+    <t>2020 Alcohol Use</t>
+  </si>
+  <si>
+    <t>2020 IDU</t>
+  </si>
+  <si>
+    <t>2020 SUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State </t>
+  </si>
+  <si>
+    <t>Double Check this one</t>
+  </si>
+  <si>
+    <t>Campgrounds</t>
   </si>
 </sst>
 </file>
@@ -217,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +435,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -558,10 +604,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,10 +965,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,13 +1258,525 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <f>SUM(B12:B18)</f>
+        <v>0.41000000000000003</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:C18">
+    <sortCondition descending="1" ref="B12:B18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2055B247-FFE5-4FC3-8C94-6F74FA7256B3}">
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2010</v>
+      </c>
+      <c r="E1">
+        <v>2020</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="4">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="4">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="4">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6">
+        <v>18</v>
+      </c>
+      <c r="R6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="4">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="4">
+        <v>38</v>
+      </c>
+      <c r="O8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8">
+        <v>42</v>
+      </c>
+      <c r="R8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="4">
+        <v>50</v>
+      </c>
+      <c r="O9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9">
+        <v>47</v>
+      </c>
+      <c r="R9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <f>SUM(B3:B9)</f>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="F10" s="3">
+        <f>SUM(F3:F9)</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:S9">
+    <sortCondition ref="S3:S9"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798B40AC-39C6-4E3A-A7CE-6B3A682E60C3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
